--- a/medicine/Psychotrope/Pomerol_(AOC)/Pomerol_(AOC).xlsx
+++ b/medicine/Psychotrope/Pomerol_(AOC)/Pomerol_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pomerol[1] est un vin rouge français d'appellation d'origine contrôlée produit sur la commune de Pomerol et une partie de celles de Libourne et de Lalande-de-Pomerol. Il s'agit d'une appellation du vignoble du Libournais, une des subdivisions du vignoble de Bordeaux.
+Le pomerol est un vin rouge français d'appellation d'origine contrôlée produit sur la commune de Pomerol et une partie de celles de Libourne et de Lalande-de-Pomerol. Il s'agit d'une appellation du vignoble du Libournais, une des subdivisions du vignoble de Bordeaux.
 Cette appellation est réputée notamment pour ses crus les plus fameux, Pétrus, Le Pin, Lafleur, La Conseillante, Gazin, Maillet, Rouget et bien d'autres. Elle produit exclusivement du vin rouge et, si presque tous les cépages bordelais peuvent y être utilisés (cabernet-sauvignon, cabernet franc, côt, etc.), c'est le merlot qui prédomine nettement, représentant même 100 % de l'encépagement chez certains crus, comme Le Pin.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La naissance de la viticulture à Pomerol est marquée au XIIe siècle par l'installation de l'ordre des Hospitaliers de Saint-Jean de Jérusalem, qui aménage à Pomerol un hospice servant d'étape aux pèlerins en route vers de Saint-Jacques de Compostelle. Le vignoble est attesté dès le Moyen Âge, mentionné parmi les destructions de la guerre de Cent Ans. Le vignoble de Pomerol est favorisé par la proximité de la ville de Libourne, qui dispose d'un petit port pour exporter les vins. Un procès-verbal du XVIIIe siècle[4] mentionne un cas de replantage d'une parcelle avec du noir de pressac (c'est-à-dire le côt), du bouchet (le cabernet franc) et du merlot, le tout à la place de cépages blancs.
-Le développement du négoce de Libourne (composé entre autres de familles corréziennes) et la construction de la ligne de chemin de fer Libourne-Paris favorise la croissance du vignoble. Après la destruction due au phylloxéra à la fin du XIXe siècle, le vignoble de Pomerol est replanté majoritairement avec du merlot. En 1900, est créé le Syndicat viticole et agricole de Pomerol, qui a un rôle de défense de l'appellation communale. Les limites de l'appellation ont été fixées par le jugement du tribunal civil de Bordeaux du 29 décembre 1928 ; elles sont reprises à l'identique quand l'appellation est reconnue par le décret du 8 décembre 1936[5]. En 2011, le cahier des charges a fait l'objet d'une nouvelle édition[3], comme pour tous les appellations françaises.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La naissance de la viticulture à Pomerol est marquée au XIIe siècle par l'installation de l'ordre des Hospitaliers de Saint-Jean de Jérusalem, qui aménage à Pomerol un hospice servant d'étape aux pèlerins en route vers de Saint-Jacques de Compostelle. Le vignoble est attesté dès le Moyen Âge, mentionné parmi les destructions de la guerre de Cent Ans. Le vignoble de Pomerol est favorisé par la proximité de la ville de Libourne, qui dispose d'un petit port pour exporter les vins. Un procès-verbal du XVIIIe siècle mentionne un cas de replantage d'une parcelle avec du noir de pressac (c'est-à-dire le côt), du bouchet (le cabernet franc) et du merlot, le tout à la place de cépages blancs.
+Le développement du négoce de Libourne (composé entre autres de familles corréziennes) et la construction de la ligne de chemin de fer Libourne-Paris favorise la croissance du vignoble. Après la destruction due au phylloxéra à la fin du XIXe siècle, le vignoble de Pomerol est replanté majoritairement avec du merlot. En 1900, est créé le Syndicat viticole et agricole de Pomerol, qui a un rôle de défense de l'appellation communale. Les limites de l'appellation ont été fixées par le jugement du tribunal civil de Bordeaux du 29 décembre 1928 ; elles sont reprises à l'identique quand l'appellation est reconnue par le décret du 8 décembre 1936. En 2011, le cahier des charges a fait l'objet d'une nouvelle édition, comme pour tous les appellations françaises.
 </t>
         </is>
       </c>
@@ -545,21 +559,12 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble de Pomerol se situe dans le département de la Gironde, dans la partie du vignoble de Bordeaux appelée le Libournais, sur la rive droite de la Dordogne juste en amont de sa confluence avec l'Isle.
-Limites de l'appellation
-La partie de la commune de Libourne ayant droit à l'appellation pomerol est limitée au nord par la rivière la Barbanne, à l'est par la limite de la commune de Pomerol, au sud par le ruisseau de Tailhas, à l'ouest par la route départementale 910, le boulevard Beauséjour, l'avenue Georges Clemenceau, la rue du Docteur-Nard, l'avenue de l'Europe et la voie ferrée de Libourne à Bergerac.
-La partie de la commune de Lalande-de-Pomerol ayant droit à l'appellation pomerol est limitée au château de Sales (3 hectares et 50 ares)[3].
-Géologie et orographie
-L'appellation s'étend en rebord du plateau de Saint-Émilion. Sur les molasses du Fronsadais se sont déposés des dépôts profonds de sables, graviers et argiles se succèdent de l'ouest vers l'est : d'abord la moyenne terrasse datant du Riss soit le Saalien (ou Ionien, Pléistocène moyen) entre la D 910 et la voie ferrée de Libourne à Angoulême, puis d'autres alluvions autour du hameau du Grand-Moulinet, ensuite des colluvions graveleux (parfois cimentés par des oxydes de fer) au Bourg-Neuf et au sud de Catusseau jusqu'à la voie ferrée de Libourne à Bergerac, le sommet de l'appellation (40,20 mètres d'altitude) étant occupé par la haute terrasse datant du Günz (Pléistocène inférieur), avec une boutonnière d'argile principalement localisée à Pétrus et partagée entre Vieux Château Certan, La Conseillante, l'Évangile et Gazin[6],[7].
-Climatologie
-C'est un climat tempéré de type océanique, assez chaud pour permettre la culture des vignes même sur terrain plat. La pluviométrie est répartie de manière assez homogène tout au long de l'année avec des automnes plutôt pluvieux. Les températures donnent des hivers doux et des étés chauds sans sècheresse.
-Les relevés de la station météorologique de Bordeaux-Mérignac (à 47 mètres d'altitude) sont représentatifs du climat de la Gironde.
-Source : Infoclimat.fr[8].
-Le climat bordelais connaît des variations annuelles modérées, qui ont des conséquences sur l'état des vignes, sur les rendements et sur la qualité de la production. Par exemple, l'année 1956 est marquée par de fortes gelées qui détruisent une partie du vignoble, tandis que 2003 l'est par un été caniculaire, pire que celui de 1947, les vignes souffrant de la chaleur et de la sécheresse : le record de la station de Mérignac est battu le 4 août 2003 avec une température de 40,7 °C mesurée à l'ombre et une moyenne mensuelle maximum de 32,1 °C (6,5 °C de plus que la normale)[9].
-La production de cette année-là est atypique, avec des vins sucrés, manquant d'acidité et très alcoolisés dû à des raisins surmûris (malgré des vendanges précoces).
 </t>
         </is>
       </c>
@@ -585,20 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Situation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le vignoble produisant le pomerol couvre 785 hectares[2], couvrant ainsi l'essentiel de l'aire d'appellation.
-Encépagement
-Les cépages autorisés sont le cabernet franc N, le cabernet sauvignon N,  le cot N (ou malbec ou pressac), le merlot N et le petit verdot N[3].
-Le merlot N est vigoureux (il a des rendements plutôt élevés) mais sensible au mildiou et à la cicadelle. Parmi les cépages noirs bordelais il mûrit en premier, donnant des baies à peau fine (sensibles à la pourriture) dont on fait des vins rouges aromatiques (fruits rouges et épices) et pas trop tanniques, capables d'être bus jeune comme de vieillir, apportant aux assemblages sucre et alcool[10].
-Pratiques culturales
-La densité minimale à la plantation doit être de 5 500 pieds par hectare. L'écartement entre les rangs est limité à un maximum de deux mètres[3].
-La taille doit être soit en Guyot (simple ou double), soit à courson (cots) en cordon de Royat, soit à longs bois (astes). Le nombre d'yeux francs par pied est limité à un maximum de dix[3].
-Rendements
-Le rendement maximum est fixé à 49 hectolitres par hectare, avec un rendement butoir à 60[3].
+          <t>Limites de l'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie de la commune de Libourne ayant droit à l'appellation pomerol est limitée au nord par la rivière la Barbanne, à l'est par la limite de la commune de Pomerol, au sud par le ruisseau de Tailhas, à l'ouest par la route départementale 910, le boulevard Beauséjour, l'avenue Georges Clemenceau, la rue du Docteur-Nard, l'avenue de l'Europe et la voie ferrée de Libourne à Bergerac.
+La partie de la commune de Lalande-de-Pomerol ayant droit à l'appellation pomerol est limitée au château de Sales (3 hectares et 50 ares).
 </t>
         </is>
       </c>
@@ -624,16 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vins</t>
+          <t>Situation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vinification et élevage
-Les techniques soustractives d'enrichissement (TSE) sont autorisées dans la limite d’un taux de concentration de 15 %. Les vins ne dépassent pas, après enrichissement, le titre alcoométrique volumique total de 13,5 % vol[3].
-Gastronomie
-Le pomerol est un vin rouge plutôt foncé.
-Accords gastronomiques : viandes rouges grillées, gibiers à poils et à plumes...
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation s'étend en rebord du plateau de Saint-Émilion. Sur les molasses du Fronsadais se sont déposés des dépôts profonds de sables, graviers et argiles se succèdent de l'ouest vers l'est : d'abord la moyenne terrasse datant du Riss soit le Saalien (ou Ionien, Pléistocène moyen) entre la D 910 et la voie ferrée de Libourne à Angoulême, puis d'autres alluvions autour du hameau du Grand-Moulinet, ensuite des colluvions graveleux (parfois cimentés par des oxydes de fer) au Bourg-Neuf et au sud de Catusseau jusqu'à la voie ferrée de Libourne à Bergerac, le sommet de l'appellation (40,20 mètres d'altitude) étant occupé par la haute terrasse datant du Günz (Pléistocène inférieur), avec une boutonnière d'argile principalement localisée à Pétrus et partagée entre Vieux Château Certan, La Conseillante, l'Évangile et Gazin,.
 </t>
         </is>
       </c>
@@ -659,18 +665,353 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Situation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un climat tempéré de type océanique, assez chaud pour permettre la culture des vignes même sur terrain plat. La pluviométrie est répartie de manière assez homogène tout au long de l'année avec des automnes plutôt pluvieux. Les températures donnent des hivers doux et des étés chauds sans sècheresse.
+Les relevés de la station météorologique de Bordeaux-Mérignac (à 47 mètres d'altitude) sont représentatifs du climat de la Gironde.
+Source : Infoclimat.fr.
+Le climat bordelais connaît des variations annuelles modérées, qui ont des conséquences sur l'état des vignes, sur les rendements et sur la qualité de la production. Par exemple, l'année 1956 est marquée par de fortes gelées qui détruisent une partie du vignoble, tandis que 2003 l'est par un été caniculaire, pire que celui de 1947, les vignes souffrant de la chaleur et de la sécheresse : le record de la station de Mérignac est battu le 4 août 2003 avec une température de 40,7 °C mesurée à l'ombre et une moyenne mensuelle maximum de 32,1 °C (6,5 °C de plus que la normale).
+La production de cette année-là est atypique, avec des vins sucrés, manquant d'acidité et très alcoolisés dû à des raisins surmûris (malgré des vendanges précoces).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble produisant le pomerol couvre 785 hectares, couvrant ainsi l'essentiel de l'aire d'appellation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages autorisés sont le cabernet franc N, le cabernet sauvignon N,  le cot N (ou malbec ou pressac), le merlot N et le petit verdot N.
+Le merlot N est vigoureux (il a des rendements plutôt élevés) mais sensible au mildiou et à la cicadelle. Parmi les cépages noirs bordelais il mûrit en premier, donnant des baies à peau fine (sensibles à la pourriture) dont on fait des vins rouges aromatiques (fruits rouges et épices) et pas trop tanniques, capables d'être bus jeune comme de vieillir, apportant aux assemblages sucre et alcool.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pratiques culturales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La densité minimale à la plantation doit être de 5 500 pieds par hectare. L'écartement entre les rangs est limité à un maximum de deux mètres.
+La taille doit être soit en Guyot (simple ou double), soit à courson (cots) en cordon de Royat, soit à longs bois (astes). Le nombre d'yeux francs par pied est limité à un maximum de dix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rendement maximum est fixé à 49 hectolitres par hectare, avec un rendement butoir à 60.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les techniques soustractives d'enrichissement (TSE) sont autorisées dans la limite d’un taux de concentration de 15 %. Les vins ne dépassent pas, après enrichissement, le titre alcoométrique volumique total de 13,5 % vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pomerol est un vin rouge plutôt foncé.
+Accords gastronomiques : viandes rouges grillées, gibiers à poils et à plumes...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins ne peuvent être mis sur le marché qu'à partir du 15 novembre de l'année qui suit la vendange[3]. En 2009, les 140 exploitations ont une surface moyenne de six hectares[3].
-Le morcellement plus important du foncier, les petites dimensions de la majorité des exploitations par rapport au reste du vignoble bordelais font que les producteurs pomerolais sont parfois décrits comme une « sorte de petite république villageoise »[2].
-Classement
-Il n'existe pas de classement officiel des vins de Pomerol, celui fiscal de juin 1943 ayant été aboli en novembre 1944[11].
-Quelques auteurs et sites[12] ont malgré tout proposé chacun un « classement non officiel », avec systématiquement en tête Pétrus, suivi par les châteaux Hosanna (l'ancien Certan-Giraud), La Conseillante, Le Pin, Vieux-Certan, Rouget, L'Évangile, La Fleur-Pétrus, la Fleur de Gay, Gazin, Lafleur, Clinet, Clos l'Église, Petit-Village et Trotanoy.
-Plus bas dans ces classements sont cités une deuxième catégorie de producteurs, comprenant les châteaux La Ganne, Maillet, Altimar, Beauregard, Certan-de-May, l'Église Clinet, La Croix, La Croix de Gay, Lagrange, La Pointe, Mazeyres, Nénin, Taillefer, de Sales, Vieux Maillet, Bon Pasteur, Grand Beauséjour, Gombaude-Guillot, Grange-Neuve, La Croix du Casse, Belle Brise, Clos Saint-André, Beauregard, Feytit Clinet ou Haut-Tropchaud[13].
-Liste de domaines
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins ne peuvent être mis sur le marché qu'à partir du 15 novembre de l'année qui suit la vendange. En 2009, les 140 exploitations ont une surface moyenne de six hectares.
+Le morcellement plus important du foncier, les petites dimensions de la majorité des exploitations par rapport au reste du vignoble bordelais font que les producteurs pomerolais sont parfois décrits comme une « sorte de petite république villageoise ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Classement</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas de classement officiel des vins de Pomerol, celui fiscal de juin 1943 ayant été aboli en novembre 1944.
+Quelques auteurs et sites ont malgré tout proposé chacun un « classement non officiel », avec systématiquement en tête Pétrus, suivi par les châteaux Hosanna (l'ancien Certan-Giraud), La Conseillante, Le Pin, Vieux-Certan, Rouget, L'Évangile, La Fleur-Pétrus, la Fleur de Gay, Gazin, Lafleur, Clinet, Clos l'Église, Petit-Village et Trotanoy.
+Plus bas dans ces classements sont cités une deuxième catégorie de producteurs, comprenant les châteaux La Ganne, Maillet, Altimar, Beauregard, Certan-de-May, l'Église Clinet, La Croix, La Croix de Gay, Lagrange, La Pointe, Mazeyres, Nénin, Taillefer, de Sales, Vieux Maillet, Bon Pasteur, Grand Beauséjour, Gombaude-Guillot, Grange-Neuve, La Croix du Casse, Belle Brise, Clos Saint-André, Beauregard, Feytit Clinet ou Haut-Tropchaud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomerol_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Liste de domaines</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Château Beau Soleil
 Château Beauregard
 Château Bel-Air
